--- a/개발자들_출석부.xlsx
+++ b/개발자들_출석부.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60A6A6D-DAA7-439E-9AC7-DB4CFEF56A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F6ADF3-FE6D-44BE-92D0-29BBF1AC8820}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +197,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +236,16 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -264,15 +290,21 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,8 +323,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -609,7 +649,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -700,7 +740,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -722,7 +762,7 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -920,7 +960,9 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="6">
+        <v>1000</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1074,7 +1116,9 @@
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="7">
+        <v>5000</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
